--- a/Tests 2.xlsx
+++ b/Tests 2.xlsx
@@ -1,54 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\Documents\GitHub\MON-3.1---Python-in-companies\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A0B48B-65E0-4AC1-A14D-D7CAC0A9AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="-15720" windowWidth="17250" windowHeight="8865" activeTab="1" xr2:uid="{037DE63B-2A9D-433B-8403-A44746F833CF}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="495" yWindow="-15720" windowWidth="17250" windowHeight="8865" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,25 +439,5033 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4065DDE6-D386-4E5B-8397-0C1D7C7B4FD6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14A1513-EEB9-4005-A9AA-777477237249}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:B999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="n">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="n">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="n">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="n">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="n">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="n">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="n">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="n">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="n">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="n">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="n">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="n">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="n">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="n">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="n">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="n">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="n">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="n">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="n">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="n">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="n">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="n">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="n">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="n">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="n">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="n">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="n">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="n">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="n">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="n">
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="n">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="n">
+        <v>7569</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="n">
+        <v>7744</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="n">
+        <v>7921</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="n">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="n">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="n">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="n">
+        <v>8649</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="n">
+        <v>8836</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="n">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="n">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="n">
+        <v>9409</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="n">
+        <v>9604</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="n">
+        <v>9801</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="n">
+        <v>10404</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="n">
+        <v>10609</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="n">
+        <v>10816</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="n">
+        <v>11025</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="n">
+        <v>11236</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="n">
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="n">
+        <v>11664</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="n">
+        <v>11881</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="n">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="n">
+        <v>12321</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="n">
+        <v>12544</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="n">
+        <v>12769</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="n">
+        <v>12996</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="n">
+        <v>13225</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="n">
+        <v>13456</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="n">
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="n">
+        <v>13924</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="n">
+        <v>14161</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="n">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="n">
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="n">
+        <v>14884</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="n">
+        <v>15129</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="n">
+        <v>15376</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="n">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="n">
+        <v>15876</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="n">
+        <v>16129</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="n">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="n">
+        <v>16641</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="n">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="n">
+        <v>17161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="n">
+        <v>17424</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="n">
+        <v>17689</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="n">
+        <v>17956</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="n">
+        <v>18225</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="n">
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="n">
+        <v>18769</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="n">
+        <v>19044</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="n">
+        <v>19321</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="n">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="n">
+        <v>19881</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="n">
+        <v>20164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="n">
+        <v>20449</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="n">
+        <v>20736</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="n">
+        <v>21025</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="n">
+        <v>21316</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="n">
+        <v>21609</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="n">
+        <v>21904</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="n">
+        <v>22201</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="n">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="n">
+        <v>22801</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="n">
+        <v>23104</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="n">
+        <v>23409</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="n">
+        <v>23716</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="n">
+        <v>24025</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="n">
+        <v>24336</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="n">
+        <v>24649</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="n">
+        <v>24964</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="n">
+        <v>25281</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="n">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="n">
+        <v>25921</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="n">
+        <v>26244</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="n">
+        <v>26569</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="n">
+        <v>26896</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="n">
+        <v>27225</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="n">
+        <v>27556</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="n">
+        <v>27889</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="n">
+        <v>28224</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="n">
+        <v>28561</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="n">
+        <v>28900</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="n">
+        <v>29241</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="n">
+        <v>29584</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="n">
+        <v>29929</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="n">
+        <v>30276</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="n">
+        <v>30625</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="n">
+        <v>30976</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="n">
+        <v>31329</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="n">
+        <v>31684</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="n">
+        <v>32041</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="n">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="n">
+        <v>32761</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="n">
+        <v>33124</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="n">
+        <v>33489</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="n">
+        <v>33856</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="n">
+        <v>34225</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="n">
+        <v>34596</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="n">
+        <v>34969</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="n">
+        <v>35344</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="n">
+        <v>35721</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="n">
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="n">
+        <v>36481</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="n">
+        <v>36864</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="n">
+        <v>37249</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="n">
+        <v>37636</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="n">
+        <v>38025</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="n">
+        <v>38416</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="n">
+        <v>38809</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="n">
+        <v>39204</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="n">
+        <v>39601</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="n">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="n">
+        <v>40804</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="n">
+        <v>41209</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="n">
+        <v>41616</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="n">
+        <v>42025</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="n">
+        <v>42436</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="n">
+        <v>42849</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="n">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="n">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="n">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="n">
+        <v>44521</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="n">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="n">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="n">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="n">
+        <v>46225</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="n">
+        <v>46656</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="n">
+        <v>47089</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="n">
+        <v>47524</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="n">
+        <v>47961</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="n">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="n">
+        <v>48841</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="n">
+        <v>49284</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="n">
+        <v>49729</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="n">
+        <v>50176</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="n">
+        <v>50625</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="n">
+        <v>51076</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="n">
+        <v>51529</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="n">
+        <v>51984</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="n">
+        <v>52441</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="n">
+        <v>52900</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="n">
+        <v>53361</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="n">
+        <v>53824</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="n">
+        <v>54289</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="n">
+        <v>54756</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="n">
+        <v>55225</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="n">
+        <v>55696</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="n">
+        <v>56169</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="n">
+        <v>56644</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="n">
+        <v>57121</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="n">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="n">
+        <v>58081</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="n">
+        <v>58564</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="n">
+        <v>59049</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="n">
+        <v>59536</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="n">
+        <v>60025</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="n">
+        <v>60516</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="n">
+        <v>61009</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="n">
+        <v>61504</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="n">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="n">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="n">
+        <v>63001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="n">
+        <v>63504</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="n">
+        <v>64009</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="n">
+        <v>64516</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="n">
+        <v>65025</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="n">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="n">
+        <v>66049</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="n">
+        <v>66564</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="n">
+        <v>67081</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="n">
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="n">
+        <v>68121</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="n">
+        <v>68644</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="n">
+        <v>69169</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="n">
+        <v>69696</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="n">
+        <v>70225</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="n">
+        <v>70756</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="n">
+        <v>71289</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="n">
+        <v>71824</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="n">
+        <v>72361</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="n">
+        <v>72900</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="n">
+        <v>73441</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="n">
+        <v>73984</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="n">
+        <v>74529</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="n">
+        <v>75076</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="n">
+        <v>75625</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="n">
+        <v>76176</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="n">
+        <v>76729</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="n">
+        <v>77284</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="n">
+        <v>77841</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="n">
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="n">
+        <v>78961</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="n">
+        <v>79524</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="n">
+        <v>80089</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="n">
+        <v>80656</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="n">
+        <v>81225</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="n">
+        <v>81796</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="n">
+        <v>82369</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="n">
+        <v>82944</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="n">
+        <v>83521</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="n">
+        <v>84100</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="n">
+        <v>84681</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="n">
+        <v>85264</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="n">
+        <v>85849</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="n">
+        <v>86436</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="n">
+        <v>87025</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="n">
+        <v>87616</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="n">
+        <v>88209</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="n">
+        <v>88804</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="n">
+        <v>89401</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="n">
+        <v>90601</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="n">
+        <v>91204</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="n">
+        <v>91809</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="n">
+        <v>92416</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="n">
+        <v>93025</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="n">
+        <v>93636</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="n">
+        <v>94249</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="n">
+        <v>94864</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="n">
+        <v>95481</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="n">
+        <v>96100</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="n">
+        <v>96721</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="n">
+        <v>97344</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="n">
+        <v>97969</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="n">
+        <v>98596</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="n">
+        <v>99225</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="n">
+        <v>99856</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="n">
+        <v>100489</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="n">
+        <v>101124</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="n">
+        <v>101761</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="n">
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="n">
+        <v>103041</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="n">
+        <v>103684</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="n">
+        <v>104329</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="n">
+        <v>104976</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="n">
+        <v>105625</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="n">
+        <v>106276</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="n">
+        <v>106929</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="n">
+        <v>107584</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="n">
+        <v>108241</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="n">
+        <v>108900</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="n">
+        <v>109561</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="n">
+        <v>110224</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="n">
+        <v>110889</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="n">
+        <v>111556</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="n">
+        <v>112225</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="n">
+        <v>112896</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="n">
+        <v>113569</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="n">
+        <v>114244</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="n">
+        <v>114921</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="n">
+        <v>115600</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="n">
+        <v>116281</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="n">
+        <v>116964</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="n">
+        <v>117649</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="n">
+        <v>118336</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="n">
+        <v>119025</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="n">
+        <v>119716</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="n">
+        <v>120409</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="n">
+        <v>121104</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="n">
+        <v>121801</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="n">
+        <v>122500</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="n">
+        <v>123201</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="n">
+        <v>123904</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="n">
+        <v>124609</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="n">
+        <v>125316</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="n">
+        <v>126025</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="n">
+        <v>126736</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="n">
+        <v>127449</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="n">
+        <v>128164</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="n">
+        <v>128881</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="n">
+        <v>129600</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="n">
+        <v>130321</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="n">
+        <v>131044</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="n">
+        <v>131769</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="n">
+        <v>132496</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="n">
+        <v>133225</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="n">
+        <v>133956</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="n">
+        <v>134689</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="n">
+        <v>135424</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="n">
+        <v>136161</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="n">
+        <v>136900</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="n">
+        <v>137641</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="n">
+        <v>138384</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="n">
+        <v>139129</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="n">
+        <v>139876</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="n">
+        <v>140625</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="n">
+        <v>141376</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="n">
+        <v>142129</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="n">
+        <v>142884</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="n">
+        <v>143641</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="n">
+        <v>144400</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="n">
+        <v>145161</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="n">
+        <v>145924</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="n">
+        <v>146689</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="n">
+        <v>147456</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="n">
+        <v>148225</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="n">
+        <v>148996</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="n">
+        <v>149769</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" t="n">
+        <v>150544</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" t="n">
+        <v>151321</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" t="n">
+        <v>152100</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="n">
+        <v>152881</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" t="n">
+        <v>153664</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" t="n">
+        <v>154449</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="B394" t="n">
+        <v>155236</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" t="n">
+        <v>156025</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="B396" t="n">
+        <v>156816</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="B397" t="n">
+        <v>157609</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" t="n">
+        <v>158404</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" t="n">
+        <v>159201</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="B400" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" t="n">
+        <v>160801</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="B402" t="n">
+        <v>161604</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" t="n">
+        <v>162409</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" t="n">
+        <v>163216</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" t="n">
+        <v>164025</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="B406" t="n">
+        <v>164836</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" t="n">
+        <v>165649</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="B408" t="n">
+        <v>166464</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="B409" t="n">
+        <v>167281</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="B410" t="n">
+        <v>168100</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="B411" t="n">
+        <v>168921</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" t="n">
+        <v>169744</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" t="n">
+        <v>170569</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" t="n">
+        <v>171396</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" t="n">
+        <v>172225</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" t="n">
+        <v>173056</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="B417" t="n">
+        <v>173889</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="B418" t="n">
+        <v>174724</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" t="n">
+        <v>175561</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" t="n">
+        <v>176400</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" t="n">
+        <v>177241</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="B422" t="n">
+        <v>178084</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" t="n">
+        <v>178929</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" t="n">
+        <v>179776</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" t="n">
+        <v>180625</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="B426" t="n">
+        <v>181476</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" t="n">
+        <v>182329</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" t="n">
+        <v>183184</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="B429" t="n">
+        <v>184041</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="B430" t="n">
+        <v>184900</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="B431" t="n">
+        <v>185761</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="B432" t="n">
+        <v>186624</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="B433" t="n">
+        <v>187489</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="B434" t="n">
+        <v>188356</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="B435" t="n">
+        <v>189225</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" t="n">
+        <v>190096</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="B437" t="n">
+        <v>190969</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="B438" t="n">
+        <v>191844</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="B439" t="n">
+        <v>192721</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="B440" t="n">
+        <v>193600</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="B441" t="n">
+        <v>194481</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="B442" t="n">
+        <v>195364</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="B443" t="n">
+        <v>196249</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="B444" t="n">
+        <v>197136</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="B445" t="n">
+        <v>198025</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="B446" t="n">
+        <v>198916</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="B447" t="n">
+        <v>199809</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="B448" t="n">
+        <v>200704</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="B449" t="n">
+        <v>201601</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="B450" t="n">
+        <v>202500</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="B451" t="n">
+        <v>203401</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="B452" t="n">
+        <v>204304</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="B453" t="n">
+        <v>205209</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="B454" t="n">
+        <v>206116</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="B455" t="n">
+        <v>207025</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="B456" t="n">
+        <v>207936</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="B457" t="n">
+        <v>208849</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="B458" t="n">
+        <v>209764</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="B459" t="n">
+        <v>210681</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="B460" t="n">
+        <v>211600</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="B461" t="n">
+        <v>212521</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="B462" t="n">
+        <v>213444</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="B463" t="n">
+        <v>214369</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="B464" t="n">
+        <v>215296</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="B465" t="n">
+        <v>216225</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" t="n">
+        <v>217156</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="B467" t="n">
+        <v>218089</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" t="n">
+        <v>219024</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" t="n">
+        <v>219961</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" t="n">
+        <v>220900</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" t="n">
+        <v>221841</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" t="n">
+        <v>222784</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="B473" t="n">
+        <v>223729</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" t="n">
+        <v>224676</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="B475" t="n">
+        <v>225625</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="B476" t="n">
+        <v>226576</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" t="n">
+        <v>227529</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" t="n">
+        <v>228484</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" t="n">
+        <v>229441</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" t="n">
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" t="n">
+        <v>231361</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" t="n">
+        <v>232324</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" t="n">
+        <v>233289</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" t="n">
+        <v>234256</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" t="n">
+        <v>235225</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="B486" t="n">
+        <v>236196</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="B487" t="n">
+        <v>237169</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="B488" t="n">
+        <v>238144</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="B489" t="n">
+        <v>239121</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="B490" t="n">
+        <v>240100</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="B491" t="n">
+        <v>241081</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="B492" t="n">
+        <v>242064</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="B493" t="n">
+        <v>243049</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" t="n">
+        <v>244036</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" t="n">
+        <v>245025</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="B496" t="n">
+        <v>246016</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="B497" t="n">
+        <v>247009</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="B498" t="n">
+        <v>248004</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="B499" t="n">
+        <v>249001</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="B500" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="B501" t="n">
+        <v>251001</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="B502" t="n">
+        <v>252004</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="B503" t="n">
+        <v>253009</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="B504" t="n">
+        <v>254016</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="B505" t="n">
+        <v>255025</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="B506" t="n">
+        <v>256036</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="B507" t="n">
+        <v>257049</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="B508" t="n">
+        <v>258064</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="B509" t="n">
+        <v>259081</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="B510" t="n">
+        <v>260100</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="B511" t="n">
+        <v>261121</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="B512" t="n">
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="B513" t="n">
+        <v>263169</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="B514" t="n">
+        <v>264196</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="B515" t="n">
+        <v>265225</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" t="n">
+        <v>266256</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="B517" t="n">
+        <v>267289</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="B518" t="n">
+        <v>268324</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="B519" t="n">
+        <v>269361</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="B520" t="n">
+        <v>270400</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="B521" t="n">
+        <v>271441</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="B522" t="n">
+        <v>272484</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="B523" t="n">
+        <v>273529</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" t="n">
+        <v>274576</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" t="n">
+        <v>275625</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="B526" t="n">
+        <v>276676</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="B527" t="n">
+        <v>277729</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="B528" t="n">
+        <v>278784</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="B529" t="n">
+        <v>279841</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="B530" t="n">
+        <v>280900</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="B531" t="n">
+        <v>281961</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="B532" t="n">
+        <v>283024</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="B533" t="n">
+        <v>284089</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="B534" t="n">
+        <v>285156</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="B535" t="n">
+        <v>286225</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="B536" t="n">
+        <v>287296</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="B537" t="n">
+        <v>288369</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="B538" t="n">
+        <v>289444</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="B539" t="n">
+        <v>290521</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="B540" t="n">
+        <v>291600</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="B541" t="n">
+        <v>292681</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="B542" t="n">
+        <v>293764</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="B543" t="n">
+        <v>294849</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="B544" t="n">
+        <v>295936</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="B545" t="n">
+        <v>297025</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="B546" t="n">
+        <v>298116</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="B547" t="n">
+        <v>299209</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="B548" t="n">
+        <v>300304</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="B549" t="n">
+        <v>301401</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="B550" t="n">
+        <v>302500</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="B551" t="n">
+        <v>303601</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="B552" t="n">
+        <v>304704</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="B553" t="n">
+        <v>305809</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="B554" t="n">
+        <v>306916</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="B555" t="n">
+        <v>308025</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="B556" t="n">
+        <v>309136</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="B557" t="n">
+        <v>310249</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="B558" t="n">
+        <v>311364</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="B559" t="n">
+        <v>312481</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="n">
+        <v>313600</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="B561" t="n">
+        <v>314721</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="n">
+        <v>315844</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="B563" t="n">
+        <v>316969</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="n">
+        <v>318096</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="B565" t="n">
+        <v>319225</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="n">
+        <v>320356</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" t="n">
+        <v>321489</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="n">
+        <v>322624</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" t="n">
+        <v>323761</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" t="n">
+        <v>324900</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="B571" t="n">
+        <v>326041</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" t="n">
+        <v>327184</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="B573" t="n">
+        <v>328329</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" t="n">
+        <v>329476</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="B575" t="n">
+        <v>330625</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" t="n">
+        <v>331776</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="B577" t="n">
+        <v>332929</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" t="n">
+        <v>334084</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="B579" t="n">
+        <v>335241</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="B580" t="n">
+        <v>336400</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="B581" t="n">
+        <v>337561</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="B582" t="n">
+        <v>338724</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="B583" t="n">
+        <v>339889</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="B584" t="n">
+        <v>341056</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="B585" t="n">
+        <v>342225</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="B586" t="n">
+        <v>343396</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="B587" t="n">
+        <v>344569</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="B588" t="n">
+        <v>345744</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="B589" t="n">
+        <v>346921</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="B590" t="n">
+        <v>348100</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="B591" t="n">
+        <v>349281</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="B592" t="n">
+        <v>350464</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="B593" t="n">
+        <v>351649</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" t="n">
+        <v>352836</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="B595" t="n">
+        <v>354025</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="B596" t="n">
+        <v>355216</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="B597" t="n">
+        <v>356409</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="B598" t="n">
+        <v>357604</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="B599" t="n">
+        <v>358801</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="B600" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="B601" t="n">
+        <v>361201</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="B602" t="n">
+        <v>362404</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="B603" t="n">
+        <v>363609</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="B604" t="n">
+        <v>364816</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="B605" t="n">
+        <v>366025</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="B606" t="n">
+        <v>367236</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="B607" t="n">
+        <v>368449</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="B608" t="n">
+        <v>369664</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="B609" t="n">
+        <v>370881</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="B610" t="n">
+        <v>372100</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="B611" t="n">
+        <v>373321</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="B612" t="n">
+        <v>374544</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="B613" t="n">
+        <v>375769</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="B614" t="n">
+        <v>376996</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="B615" t="n">
+        <v>378225</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="B616" t="n">
+        <v>379456</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="B617" t="n">
+        <v>380689</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="B618" t="n">
+        <v>381924</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="B619" t="n">
+        <v>383161</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="B620" t="n">
+        <v>384400</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="B621" t="n">
+        <v>385641</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="B622" t="n">
+        <v>386884</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="B623" t="n">
+        <v>388129</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="B624" t="n">
+        <v>389376</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="B625" t="n">
+        <v>390625</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="B626" t="n">
+        <v>391876</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="B627" t="n">
+        <v>393129</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="B628" t="n">
+        <v>394384</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="B629" t="n">
+        <v>395641</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="B630" t="n">
+        <v>396900</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="B631" t="n">
+        <v>398161</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="B632" t="n">
+        <v>399424</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="B633" t="n">
+        <v>400689</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="B634" t="n">
+        <v>401956</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="B635" t="n">
+        <v>403225</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="B636" t="n">
+        <v>404496</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="B637" t="n">
+        <v>405769</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="B638" t="n">
+        <v>407044</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="B639" t="n">
+        <v>408321</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="B640" t="n">
+        <v>409600</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="B641" t="n">
+        <v>410881</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="B642" t="n">
+        <v>412164</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="B643" t="n">
+        <v>413449</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="B644" t="n">
+        <v>414736</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="B645" t="n">
+        <v>416025</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="B646" t="n">
+        <v>417316</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="B647" t="n">
+        <v>418609</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="B648" t="n">
+        <v>419904</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="B649" t="n">
+        <v>421201</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="B650" t="n">
+        <v>422500</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="B651" t="n">
+        <v>423801</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="B652" t="n">
+        <v>425104</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="B653" t="n">
+        <v>426409</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="B654" t="n">
+        <v>427716</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="B655" t="n">
+        <v>429025</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="B656" t="n">
+        <v>430336</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="B657" t="n">
+        <v>431649</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="B658" t="n">
+        <v>432964</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="B659" t="n">
+        <v>434281</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="B660" t="n">
+        <v>435600</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="B661" t="n">
+        <v>436921</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="B662" t="n">
+        <v>438244</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="B663" t="n">
+        <v>439569</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="B664" t="n">
+        <v>440896</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="B665" t="n">
+        <v>442225</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="B666" t="n">
+        <v>443556</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="B667" t="n">
+        <v>444889</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="B668" t="n">
+        <v>446224</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="B669" t="n">
+        <v>447561</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="B670" t="n">
+        <v>448900</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="B671" t="n">
+        <v>450241</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="B672" t="n">
+        <v>451584</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="B673" t="n">
+        <v>452929</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="B674" t="n">
+        <v>454276</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="B675" t="n">
+        <v>455625</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="B676" t="n">
+        <v>456976</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="B677" t="n">
+        <v>458329</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="B678" t="n">
+        <v>459684</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="B679" t="n">
+        <v>461041</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="B680" t="n">
+        <v>462400</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="B681" t="n">
+        <v>463761</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="B682" t="n">
+        <v>465124</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="B683" t="n">
+        <v>466489</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="B684" t="n">
+        <v>467856</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="B685" t="n">
+        <v>469225</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="B686" t="n">
+        <v>470596</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="B687" t="n">
+        <v>471969</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="B688" t="n">
+        <v>473344</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="B689" t="n">
+        <v>474721</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="B690" t="n">
+        <v>476100</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="B691" t="n">
+        <v>477481</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="B692" t="n">
+        <v>478864</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="B693" t="n">
+        <v>480249</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="B694" t="n">
+        <v>481636</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="B695" t="n">
+        <v>483025</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="B696" t="n">
+        <v>484416</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="B697" t="n">
+        <v>485809</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="B698" t="n">
+        <v>487204</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="B699" t="n">
+        <v>488601</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="B700" t="n">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="B701" t="n">
+        <v>491401</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="B702" t="n">
+        <v>492804</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="B703" t="n">
+        <v>494209</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="B704" t="n">
+        <v>495616</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="B705" t="n">
+        <v>497025</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="B706" t="n">
+        <v>498436</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="B707" t="n">
+        <v>499849</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="B708" t="n">
+        <v>501264</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="B709" t="n">
+        <v>502681</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="B710" t="n">
+        <v>504100</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="B711" t="n">
+        <v>505521</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="B712" t="n">
+        <v>506944</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="B713" t="n">
+        <v>508369</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="B714" t="n">
+        <v>509796</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="B715" t="n">
+        <v>511225</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="B716" t="n">
+        <v>512656</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="B717" t="n">
+        <v>514089</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="B718" t="n">
+        <v>515524</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="B719" t="n">
+        <v>516961</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="B720" t="n">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="B721" t="n">
+        <v>519841</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="B722" t="n">
+        <v>521284</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="B723" t="n">
+        <v>522729</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="B724" t="n">
+        <v>524176</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="B725" t="n">
+        <v>525625</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="B726" t="n">
+        <v>527076</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="B727" t="n">
+        <v>528529</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="B728" t="n">
+        <v>529984</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="B729" t="n">
+        <v>531441</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="B730" t="n">
+        <v>532900</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="B731" t="n">
+        <v>534361</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="B732" t="n">
+        <v>535824</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="B733" t="n">
+        <v>537289</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="B734" t="n">
+        <v>538756</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="B735" t="n">
+        <v>540225</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="B736" t="n">
+        <v>541696</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" t="n">
+        <v>543169</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="B738" t="n">
+        <v>544644</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="B739" t="n">
+        <v>546121</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="B740" t="n">
+        <v>547600</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="B741" t="n">
+        <v>549081</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="B742" t="n">
+        <v>550564</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="B743" t="n">
+        <v>552049</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="B744" t="n">
+        <v>553536</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="B745" t="n">
+        <v>555025</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="B746" t="n">
+        <v>556516</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="B747" t="n">
+        <v>558009</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="B748" t="n">
+        <v>559504</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="B749" t="n">
+        <v>561001</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="B750" t="n">
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="B751" t="n">
+        <v>564001</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="n">
+        <v>565504</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="B753" t="n">
+        <v>567009</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="B754" t="n">
+        <v>568516</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="B755" t="n">
+        <v>570025</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="B756" t="n">
+        <v>571536</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="B757" t="n">
+        <v>573049</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="B758" t="n">
+        <v>574564</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="B759" t="n">
+        <v>576081</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="B760" t="n">
+        <v>577600</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="B761" t="n">
+        <v>579121</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="B762" t="n">
+        <v>580644</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="B763" t="n">
+        <v>582169</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" t="n">
+        <v>583696</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="B765" t="n">
+        <v>585225</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="n">
+        <v>586756</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="B767" t="n">
+        <v>588289</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" t="n">
+        <v>589824</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="B769" t="n">
+        <v>591361</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="B770" t="n">
+        <v>592900</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="B771" t="n">
+        <v>594441</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="B772" t="n">
+        <v>595984</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="B773" t="n">
+        <v>597529</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="B774" t="n">
+        <v>599076</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="B775" t="n">
+        <v>600625</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="B776" t="n">
+        <v>602176</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="B777" t="n">
+        <v>603729</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="B778" t="n">
+        <v>605284</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="B779" t="n">
+        <v>606841</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="B780" t="n">
+        <v>608400</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="B781" t="n">
+        <v>609961</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="B782" t="n">
+        <v>611524</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="B783" t="n">
+        <v>613089</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="B784" t="n">
+        <v>614656</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="B785" t="n">
+        <v>616225</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="B786" t="n">
+        <v>617796</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="B787" t="n">
+        <v>619369</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="B788" t="n">
+        <v>620944</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="B789" t="n">
+        <v>622521</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="B790" t="n">
+        <v>624100</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="B791" t="n">
+        <v>625681</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="B792" t="n">
+        <v>627264</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="B793" t="n">
+        <v>628849</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="B794" t="n">
+        <v>630436</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="B795" t="n">
+        <v>632025</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="B796" t="n">
+        <v>633616</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="B797" t="n">
+        <v>635209</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="B798" t="n">
+        <v>636804</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="B799" t="n">
+        <v>638401</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="B800" t="n">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="B801" t="n">
+        <v>641601</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="B802" t="n">
+        <v>643204</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="B803" t="n">
+        <v>644809</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="B804" t="n">
+        <v>646416</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="B805" t="n">
+        <v>648025</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="B806" t="n">
+        <v>649636</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="B807" t="n">
+        <v>651249</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="B808" t="n">
+        <v>652864</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="B809" t="n">
+        <v>654481</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="B810" t="n">
+        <v>656100</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="B811" t="n">
+        <v>657721</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="B812" t="n">
+        <v>659344</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="B813" t="n">
+        <v>660969</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="B814" t="n">
+        <v>662596</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="B815" t="n">
+        <v>664225</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="B816" t="n">
+        <v>665856</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="B817" t="n">
+        <v>667489</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="B818" t="n">
+        <v>669124</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="B819" t="n">
+        <v>670761</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="B820" t="n">
+        <v>672400</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="B821" t="n">
+        <v>674041</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="B822" t="n">
+        <v>675684</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="B823" t="n">
+        <v>677329</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="B824" t="n">
+        <v>678976</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="B825" t="n">
+        <v>680625</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="B826" t="n">
+        <v>682276</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="B827" t="n">
+        <v>683929</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="B828" t="n">
+        <v>685584</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="B829" t="n">
+        <v>687241</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="B830" t="n">
+        <v>688900</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="B831" t="n">
+        <v>690561</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="B832" t="n">
+        <v>692224</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="B833" t="n">
+        <v>693889</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="B834" t="n">
+        <v>695556</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="B835" t="n">
+        <v>697225</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="B836" t="n">
+        <v>698896</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="B837" t="n">
+        <v>700569</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="B838" t="n">
+        <v>702244</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="B839" t="n">
+        <v>703921</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="B840" t="n">
+        <v>705600</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="B841" t="n">
+        <v>707281</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="B842" t="n">
+        <v>708964</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="B843" t="n">
+        <v>710649</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="B844" t="n">
+        <v>712336</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="B845" t="n">
+        <v>714025</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="B846" t="n">
+        <v>715716</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="B847" t="n">
+        <v>717409</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="B848" t="n">
+        <v>719104</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="B849" t="n">
+        <v>720801</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="B850" t="n">
+        <v>722500</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="B851" t="n">
+        <v>724201</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="B852" t="n">
+        <v>725904</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="B853" t="n">
+        <v>727609</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="B854" t="n">
+        <v>729316</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="B855" t="n">
+        <v>731025</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="B856" t="n">
+        <v>732736</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="B857" t="n">
+        <v>734449</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="B858" t="n">
+        <v>736164</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="B859" t="n">
+        <v>737881</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="B860" t="n">
+        <v>739600</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="B861" t="n">
+        <v>741321</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="B862" t="n">
+        <v>743044</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="B863" t="n">
+        <v>744769</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="B864" t="n">
+        <v>746496</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="B865" t="n">
+        <v>748225</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="B866" t="n">
+        <v>749956</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="B867" t="n">
+        <v>751689</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="B868" t="n">
+        <v>753424</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="B869" t="n">
+        <v>755161</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="B870" t="n">
+        <v>756900</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="B871" t="n">
+        <v>758641</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="B872" t="n">
+        <v>760384</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="B873" t="n">
+        <v>762129</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="B874" t="n">
+        <v>763876</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="B875" t="n">
+        <v>765625</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="B876" t="n">
+        <v>767376</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="B877" t="n">
+        <v>769129</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="B878" t="n">
+        <v>770884</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="B879" t="n">
+        <v>772641</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="B880" t="n">
+        <v>774400</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="B881" t="n">
+        <v>776161</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="B882" t="n">
+        <v>777924</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="B883" t="n">
+        <v>779689</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="B884" t="n">
+        <v>781456</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="B885" t="n">
+        <v>783225</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="B886" t="n">
+        <v>784996</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="B887" t="n">
+        <v>786769</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="B888" t="n">
+        <v>788544</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="B889" t="n">
+        <v>790321</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="B890" t="n">
+        <v>792100</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="B891" t="n">
+        <v>793881</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="B892" t="n">
+        <v>795664</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="B893" t="n">
+        <v>797449</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="B894" t="n">
+        <v>799236</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="B895" t="n">
+        <v>801025</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="B896" t="n">
+        <v>802816</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="B897" t="n">
+        <v>804609</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="B898" t="n">
+        <v>806404</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="B899" t="n">
+        <v>808201</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="B900" t="n">
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="B901" t="n">
+        <v>811801</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="B902" t="n">
+        <v>813604</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="B903" t="n">
+        <v>815409</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="B904" t="n">
+        <v>817216</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="B905" t="n">
+        <v>819025</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="B906" t="n">
+        <v>820836</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="B907" t="n">
+        <v>822649</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="B908" t="n">
+        <v>824464</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="B909" t="n">
+        <v>826281</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="B910" t="n">
+        <v>828100</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="B911" t="n">
+        <v>829921</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="B912" t="n">
+        <v>831744</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="B913" t="n">
+        <v>833569</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="B914" t="n">
+        <v>835396</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="B915" t="n">
+        <v>837225</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="B916" t="n">
+        <v>839056</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="B917" t="n">
+        <v>840889</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="B918" t="n">
+        <v>842724</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="B919" t="n">
+        <v>844561</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="B920" t="n">
+        <v>846400</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="B921" t="n">
+        <v>848241</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="B922" t="n">
+        <v>850084</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="B923" t="n">
+        <v>851929</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="B924" t="n">
+        <v>853776</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="B925" t="n">
+        <v>855625</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="B926" t="n">
+        <v>857476</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="B927" t="n">
+        <v>859329</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="B928" t="n">
+        <v>861184</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="B929" t="n">
+        <v>863041</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="B930" t="n">
+        <v>864900</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="B931" t="n">
+        <v>866761</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="B932" t="n">
+        <v>868624</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="B933" t="n">
+        <v>870489</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="B934" t="n">
+        <v>872356</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="B935" t="n">
+        <v>874225</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="B936" t="n">
+        <v>876096</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="B937" t="n">
+        <v>877969</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="B938" t="n">
+        <v>879844</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="B939" t="n">
+        <v>881721</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="B940" t="n">
+        <v>883600</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="B941" t="n">
+        <v>885481</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="B942" t="n">
+        <v>887364</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="B943" t="n">
+        <v>889249</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="B944" t="n">
+        <v>891136</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="B945" t="n">
+        <v>893025</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="B946" t="n">
+        <v>894916</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="B947" t="n">
+        <v>896809</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="B948" t="n">
+        <v>898704</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="B949" t="n">
+        <v>900601</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="B950" t="n">
+        <v>902500</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="B951" t="n">
+        <v>904401</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="B952" t="n">
+        <v>906304</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="B953" t="n">
+        <v>908209</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="B954" t="n">
+        <v>910116</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="B955" t="n">
+        <v>912025</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="B956" t="n">
+        <v>913936</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="B957" t="n">
+        <v>915849</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="B958" t="n">
+        <v>917764</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="B959" t="n">
+        <v>919681</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="B960" t="n">
+        <v>921600</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="B961" t="n">
+        <v>923521</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="B962" t="n">
+        <v>925444</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="B963" t="n">
+        <v>927369</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="B964" t="n">
+        <v>929296</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="B965" t="n">
+        <v>931225</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="B966" t="n">
+        <v>933156</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="B967" t="n">
+        <v>935089</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="B968" t="n">
+        <v>937024</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="B969" t="n">
+        <v>938961</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="B970" t="n">
+        <v>940900</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="B971" t="n">
+        <v>942841</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="B972" t="n">
+        <v>944784</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="B973" t="n">
+        <v>946729</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="B974" t="n">
+        <v>948676</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="B975" t="n">
+        <v>950625</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="B976" t="n">
+        <v>952576</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="B977" t="n">
+        <v>954529</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="B978" t="n">
+        <v>956484</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="B979" t="n">
+        <v>958441</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="B980" t="n">
+        <v>960400</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="B981" t="n">
+        <v>962361</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="B982" t="n">
+        <v>964324</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="B983" t="n">
+        <v>966289</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="B984" t="n">
+        <v>968256</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="B985" t="n">
+        <v>970225</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="B986" t="n">
+        <v>972196</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="B987" t="n">
+        <v>974169</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="B988" t="n">
+        <v>976144</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="B989" t="n">
+        <v>978121</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="B990" t="n">
+        <v>980100</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="B991" t="n">
+        <v>982081</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="B992" t="n">
+        <v>984064</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="B993" t="n">
+        <v>986049</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="B994" t="n">
+        <v>988036</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="B995" t="n">
+        <v>990025</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="B996" t="n">
+        <v>992016</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="B997" t="n">
+        <v>994009</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="B998" t="n">
+        <v>996004</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="B999" t="n">
+        <v>998001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>